--- a/NEW HR/OCAMPO, MERLINDA.xlsx
+++ b/NEW HR/OCAMPO, MERLINDA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -707,9 +710,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -719,17 +719,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -934,27 +937,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
         <bottom style="thin">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -1175,27 +1178,27 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -1258,25 +1261,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K122" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K122" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1288,25 +1291,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K90" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K90" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1622,7 +1625,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,62 +1647,62 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1732,18 +1735,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3299,7 +3302,9 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="42"/>
-      <c r="B82" s="21"/>
+      <c r="B82" s="21" t="s">
+        <v>90</v>
+      </c>
       <c r="C82" s="14"/>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
@@ -3955,17 +3960,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4025,62 +4030,62 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4113,18 +4118,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
